--- a/data/excel/otherMiscFunctionality.xlsx
+++ b/data/excel/otherMiscFunctionality.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22728CAF-C019-4A4F-B1B0-933CEFB386BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14920DBF-4B4F-4791-9C39-C60BD2CC2E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,7 +228,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +244,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -295,6 +301,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -578,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,10 +670,10 @@
       <c r="N1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="10" t="s">
         <v>21</v>
       </c>
       <c r="Q1" s="4" t="s">
@@ -709,7 +721,7 @@
       <c r="AE1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="11" t="s">
         <v>40</v>
       </c>
     </row>
